--- a/resources/data-imports/Items/alchemy-holy-oils.xlsx
+++ b/resources/data-imports/Items/alchemy-holy-oils.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Items" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">The Creators Holy Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">The Creator has managed to make his own holy oil that rivals that of all others.</t>
+    <t xml:space="preserve">The Creator has managed to make his own holy oil that rivals that of all others. It even has a warning label: "too much is bad for your wallet"</t>
   </si>
 </sst>
 </file>
@@ -376,6 +376,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -383,13 +489,13 @@
   </sheetPr>
   <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="26.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.57"/>
@@ -675,614 +781,746 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>17179</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="0"/>
+      <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="n">
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AE2" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="1" t="n">
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="BN2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="BN2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
+        <v>17180</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>28717500</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>28717500</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM3" s="1" t="n">
+      <c r="BM3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="BN3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="BN3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
+        <v>17181</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>32987700</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>32987700</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM4" s="1" t="n">
+      <c r="BM4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="BN4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="BN4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
+        <v>17182</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0" t="n">
+        <v>6130</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>6130</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="BM5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>17183</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>39064300</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>39064300</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="AE5" s="1" t="n">
+      <c r="F6" s="0"/>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AE6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM5" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="BN5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>45330800</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>45330800</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BM6" s="1" t="n">
+      <c r="BM6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="BN6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="BN6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
